--- a/data/historical prices/ibm2.xlsx
+++ b/data/historical prices/ibm2.xlsx
@@ -9,12 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20" yWindow="440" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
+    <workbookView xWindow="-30640" yWindow="2920" windowWidth="28800" windowHeight="16280" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="ibm2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -363,7 +363,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G548"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A478" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A538" workbookViewId="0">
       <selection activeCell="C497" sqref="C497"/>
     </sheetView>
   </sheetViews>
